--- a/imgs/feature selection.xlsx
+++ b/imgs/feature selection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\ESO-National-Demand-Model\imgs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73CBA6A-168C-489F-9A22-3DD65F49EDED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8C06D5-4CE1-4F32-9465-1CE30223EA2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7027AD6-CB0E-433A-BAB3-EE0BDE10E50E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B7027AD6-CB0E-433A-BAB3-EE0BDE10E50E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t xml:space="preserve">Data </t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>one-way ANOVA test (P Value &lt;0.05 is Pass)</t>
-  </si>
-  <si>
-    <t>p-value: 0.001</t>
   </si>
   <si>
     <t>2019 ND</t>
@@ -85,7 +82,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,7 +109,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -129,33 +132,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -485,7 +474,7 @@
   <dimension ref="B2:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,11 +500,11 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4">
-        <v>-0.42935783997626797</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
+      <c r="C3" s="6">
+        <v>-0.552186272234653</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -526,29 +515,29 @@
         <v>0.105465371729554</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2">
         <v>0.76891475305629398</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>9</v>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3">
         <v>0.84869413971248497</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>9</v>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
